--- a/imageCreationExcel/back/darkyobi/darkyobi_2.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_2.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5427574825553912</v>
+        <v>0.9703670743324359</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8531395872396509</v>
+        <v>0.8077019817144194</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>24.49894521335916</v>
+        <v>18.32140478175188</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_sharpness0.54_contrast0.85_equalization24.0.jpg</t>
+          <t>1_3_contrast0.97_gamma0.81_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6288037982260262</v>
+        <v>24.04705745097114</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3689949958536796</v>
+        <v>0.9689770183338077</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.27496243714257</v>
+        <v>0.3422815193366139</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_gamma0.63_sharpness0.37_equalization10.0.jpg</t>
+          <t>2_B_brightness24.0_contrast0.97_sharpness0.34.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7667881187447863</v>
+        <v>0.8793964876178917</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7014332958365422</v>
+        <v>15.92038212430792</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14.61830286069899</v>
+        <v>0.8711656266870828</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_sharpness0.77_gamma0.7_equalization15.0.jpg</t>
+          <t>3_7_sharpness0.88_brightness16.0_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,15 +621,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2771869242887927</v>
+        <v>0.4750300943315622</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7507761105763586</v>
+        <v>1.068313216592795</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14.76288141334274</v>
+        <v>29.19087891206117</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_sharpness0.28_gamma0.75_equalization15.0.jpg</t>
+          <t>4_2_sharpness0.48_contrast1.1_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5280132886816133</v>
+        <v>0.02314296030430174</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7240345939001378</v>
+        <v>0.9320440680741843</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22.54225235616442</v>
+        <v>8.973536839957118</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_3_sharpness0.53_gamma0.72_equalization23.0.jpg</t>
+          <t>5_C_sharpness0.023_gamma0.93_equalization9.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9560383064008754</v>
+        <v>0.9545805397238861</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28.65712380305964</v>
+        <v>5.503771555588609</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6748283316311968</v>
+        <v>0.7440333937994243</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast0.96_brightness29.0_sharpness0.67.jpg</t>
+          <t>6_3_gamma0.95_brightness5.5_sharpness0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5190688972264824</v>
+        <v>0.8855128116388872</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8010711386159615</v>
+        <v>0.6826874024200611</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>19.84680818660518</v>
+        <v>1.134077875873678</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_gamma0.52_contrast0.8_equalization20.0.jpg</t>
+          <t>7_P_sharpness0.89_gamma0.68_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.063480727926569</v>
+        <v>1.047213976400952</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9756175566691351</v>
+        <v>1.066407779281081</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>27.74621831938781</v>
+        <v>4.73764283109293</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_gamma1.1_contrast0.98_equalization28.0.jpg</t>
+          <t>8_B_contrast1.0_gamma1.1_equalization4.7.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8177260253101882</v>
+        <v>0.6977436299267338</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.678159824364137</v>
+        <v>1.045203732306409</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.060721273601982</v>
+        <v>25.11975521384288</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_contrast0.82_sharpness0.68_gamma1.1.jpg</t>
+          <t>9_3_sharpness0.7_gamma1.0_brightness25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8868626936267165</v>
+        <v>0.8143537427965968</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18.27748709988398</v>
+        <v>0.7867075870135789</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.152846390942292</v>
+        <v>21.16066820242853</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_sharpness0.89_brightness18.0_contrast1.2.jpg</t>
+          <t>10_B_contrast0.81_gamma0.79_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6104635002712669</v>
+        <v>21.36189667353722</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.098525720911811</v>
+        <v>0.8446039829078816</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>23.14193140388871</v>
+        <v>0.9974063754816437</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_sharpness0.61_contrast1.1_equalization23.0.jpg</t>
+          <t>11_2_brightness21.0_contrast0.84_sharpness1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,24 +948,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.674567806454424</v>
+        <v>0.6079382808762448</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8551009573757344</v>
+        <v>0.6022974295148256</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22.39953532691742</v>
+        <v>21.99451733197163</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_gamma0.67_contrast0.86_equalization22.0.jpg</t>
+          <t>12_C_sharpness0.61_gamma0.6_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6962014127720184</v>
+        <v>0.8512942396994646</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.171420238018121</v>
+        <v>17.34905719947768</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>27.92369640214458</v>
+        <v>0.9654784360497474</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_gamma0.7_contrast1.2_equalization28.0.jpg</t>
+          <t>13_2_sharpness0.85_brightness17.0_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1037,34 +1037,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8491464514067757</v>
+        <v>0.4922160041339959</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5388188621539926</v>
+        <v>25.29908118935787</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18.18437438684904</v>
+        <v>0.7975087841260271</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_contrast0.85_gamma0.54_equalization18.0.jpg</t>
+          <t>14_9_sharpness0.49_brightness25.0_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.033950433498487</v>
+        <v>21.00710373383842</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3053337935775372</v>
+        <v>0.7281777757176491</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8.053668634683081</v>
+        <v>0.2433964620141048</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_contrast1.0_sharpness0.31_equalization8.1.jpg</t>
+          <t>15_P_brightness21.0_gamma0.73_sharpness0.24.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9925274028779464</v>
+        <v>0.6606975740222318</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.002600690284544</v>
+        <v>0.8008869330264099</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>16.16222472897266</v>
+        <v>9.909148450465809</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_E_gamma0.99_contrast1.0_equalization16.0.jpg</t>
+          <t>16_B_gamma0.66_contrast0.8_equalization9.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7155536852621623</v>
+        <v>0.8186861375235025</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5535751164770344</v>
+        <v>1.031179146105177</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8.509133975317027</v>
+        <v>5.493324822706473</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_sharpness0.72_gamma0.55_equalization8.5.jpg</t>
+          <t>17_2_gamma0.82_contrast1.0_equalization5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,30 +1209,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.169043514031352</v>
+        <v>1.048811545056851</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13.92700540048041</v>
+        <v>0.7578603525147761</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.2801586574505088</v>
+        <v>5.478518194551222</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_contrast1.2_brightness14.0_sharpness0.28.jpg</t>
+          <t>18_7_contrast1.0_gamma0.76_equalization5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.940473774520546</v>
+        <v>0.1592266802436337</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5601182890395788</v>
+        <v>0.7982797124609683</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>28.98325892062185</v>
+        <v>27.90914159194998</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_0_contrast0.94_sharpness0.56_brightness29.0.jpg</t>
+          <t>19_1_sharpness0.16_gamma0.8_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.584195263202934</v>
+        <v>0.6164679577968625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.225238204928546</v>
+        <v>0.9145573429027821</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.084148147206625</v>
+        <v>9.610821406912946</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_gamma0.58_brightness5.2_contrast1.1.jpg</t>
+          <t>20_0_sharpness0.62_contrast0.91_equalization9.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6909057116881424</v>
+        <v>0.619383411501638</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6850277376808743</v>
+        <v>3.505243122846879</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>16.70901641974208</v>
+        <v>0.2942025576699158</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_gamma0.69_sharpness0.69_equalization17.0.jpg</t>
+          <t>21_2_gamma0.62_brightness3.5_sharpness0.29.jpg</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7076105123861092</v>
+        <v>0.5435162505347078</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18.14144749470459</v>
+        <v>24.91413176439905</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9035380423558066</v>
+        <v>0.9428493357350687</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_sharpness0.71_brightness18.0_gamma0.9.jpg</t>
+          <t>22_7_sharpness0.54_brightness25.0_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5215243092601128</v>
+        <v>27.96201132257208</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8883388123478867</v>
+        <v>0.1394471521235219</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>28.48977058799445</v>
+        <v>1.053862294680974</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_gamma0.52_contrast0.89_brightness28.0.jpg</t>
+          <t>23_E_brightness28.0_sharpness0.14_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8.901064232084464</v>
+        <v>0.6672224036001601</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9180869939536334</v>
+        <v>1.031264572562369</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.4944438177443146</v>
+        <v>7.75317885155356</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_brightness8.9_contrast0.92_sharpness0.49.jpg</t>
+          <t>24_0_sharpness0.67_gamma1.0_equalization7.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.112382134692395</v>
+        <v>0.8855588576321919</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.598165126094148</v>
+        <v>0.5158524914929814</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10.12856079211928</v>
+        <v>29.71415604203958</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_S_contrast1.1_sharpness0.6_equalization10.0.jpg</t>
+          <t>25_B_contrast0.89_gamma0.52_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,15 +1545,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6058370325017872</v>
+        <v>0.2081949727429251</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7245634048753656</v>
+        <v>1.034950789696283</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.71697285872035</v>
+        <v>13.12738288254858</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_T_sharpness0.61_gamma0.72_equalization19.0.jpg</t>
+          <t>26_7_sharpness0.21_contrast1.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.055221980600407</v>
+        <v>0.06452724703440815</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5233627945193912</v>
+        <v>0.946449498524331</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5014473991791237</v>
+        <v>0.5844112815943165</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_contrast1.1_gamma0.52_sharpness0.5.jpg</t>
+          <t>27_1_sharpness0.065_contrast0.95_gamma0.58.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8807909532145041</v>
+        <v>0.1164312798137839</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>26.3935338488731</v>
+        <v>1.198481925011648</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.6792543778183734</v>
+        <v>0.7657622251817808</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_T_sharpness0.88_brightness26.0_gamma0.68.jpg</t>
+          <t>28_S_sharpness0.12_contrast1.2_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1415416378749494</v>
+        <v>0.9792178765267185</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7929129900103178</v>
+        <v>27.30735850671944</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>13.3519305839751</v>
+        <v>0.9308740094782185</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_sharpness0.14_gamma0.79_equalization13.0.jpg</t>
+          <t>29_T_contrast0.98_brightness27.0_sharpness0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6090523797707148</v>
+        <v>0.6931160679210446</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.777952003658547</v>
+        <v>1.194102377705257</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.03863752554786</v>
+        <v>27.09039742493832</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_sharpness0.61_gamma0.78_equalization20.0.jpg</t>
+          <t>30_0_gamma0.69_contrast1.2_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,30 +1755,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.05262265524257</v>
+        <v>1.046419217885154</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18.02227967506778</v>
+        <v>0.6321789723849844</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.04743521931967232</v>
+        <v>11.73659467416849</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_contrast1.1_brightness18.0_sharpness0.047.jpg</t>
+          <t>31_2_contrast1.0_gamma0.63_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>22.0887181925677</v>
+        <v>0.5068888097673996</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9372342043847319</v>
+        <v>0.2835381827057976</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.443684186771483</v>
+        <v>0.8437864483957758</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_8_brightness22.0_contrast0.94_sharpness0.44.jpg</t>
+          <t>32_7_gamma0.51_sharpness0.28_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,24 +1830,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.460085355820146</v>
+        <v>3.349432084347992</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14.84578624370098</v>
+        <v>0.3418452157432056</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.8168437120338805</v>
+        <v>0.9191187310162214</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_T_sharpness0.46_brightness15.0_contrast0.82.jpg</t>
+          <t>33_1_brightness3.3_sharpness0.34_contrast0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.054736370572609</v>
+        <v>15.13005328782125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6213969342371057</v>
+        <v>0.9516494125989687</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11.01132976630764</v>
+        <v>0.5596135430855311</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_contrast1.1_sharpness0.62_brightness11.0.jpg</t>
+          <t>34_S_brightness15.0_sharpness0.95_gamma0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,24 +1914,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.091931455304433</v>
+        <v>0.4704356961733985</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.034527730516055</v>
+        <v>0.630600857910104</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.15358400430655</v>
+        <v>23.803846976599</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_gamma1.1_contrast1.0_equalization7.2.jpg</t>
+          <t>35_9_sharpness0.47_gamma0.63_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8190854198655715</v>
+        <v>0.6723366533066775</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.095771616293182</v>
+        <v>0.4139216662559669</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17.31340039436028</v>
+        <v>1.146989845718206</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_9_contrast0.82_gamma1.1_brightness17.0.jpg</t>
+          <t>36_2_gamma0.67_sharpness0.41_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7718454021451339</v>
+        <v>0.7167888578470791</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8395681874786869</v>
+        <v>0.8295323793892542</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5370655379013342</v>
+        <v>23.09044504420843</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_sharpness0.77_contrast0.84_gamma0.54.jpg</t>
+          <t>37_S_gamma0.72_contrast0.83_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.2067539571406367</v>
+        <v>0.5053998391284943</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8319155968027406</v>
+        <v>0.6714650879063252</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9.619546567554396</v>
+        <v>26.12644647613048</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_sharpness0.21_contrast0.83_equalization9.6.jpg</t>
+          <t>38_S_gamma0.51_sharpness0.67_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8363845474610196</v>
+        <v>0.5686172114671415</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.4463241576831143</v>
+        <v>1.090000320540944</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>29.62132556439368</v>
+        <v>30.02983626951504</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_contrast0.84_sharpness0.45_equalization30.0.jpg</t>
+          <t>39_C_gamma0.57_contrast1.1_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6147901333677361</v>
+        <v>0.9740957846336773</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.041911140259152</v>
+        <v>0.3746718054075212</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.556614629304423</v>
+        <v>6.890485534000522</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_gamma0.61_contrast1.0_brightness3.6.jpg</t>
+          <t>40_E_contrast0.97_sharpness0.37_equalization6.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>21.5854429357713</v>
+        <v>28.0125762363468</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.146828780463272</v>
+        <v>0.9462578162498403</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.08848566551011627</v>
+        <v>0.7630478517442497</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_8_brightness22.0_contrast1.1_sharpness0.088.jpg</t>
+          <t>41_8_brightness28.0_contrast0.95_sharpness0.76.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,30 +2217,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9860421327899191</v>
+        <v>0.973479912812357</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>29.4481964049639</v>
+        <v>0.1228659546598054</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.1963143932730861</v>
+        <v>27.398484691821</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_2_contrast0.99_brightness29.0_sharpness0.2.jpg</t>
+          <t>42_I_contrast0.97_sharpness0.12_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9829801956357418</v>
+        <v>0.007647375554914349</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6632012763652304</v>
+        <v>19.64124695492603</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>28.19086923495205</v>
+        <v>0.6414143667614502</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_contrast0.98_gamma0.66_equalization28.0.jpg</t>
+          <t>43_S_sharpness0.0076_brightness20.0_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.980565279785651</v>
+        <v>0.565066524882608</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>14.32385123538395</v>
+        <v>0.8116515719147723</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4992972208300257</v>
+        <v>0.3759155249502294</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_B_contrast0.98_brightness14.0_sharpness0.5.jpg</t>
+          <t>44_S_gamma0.57_contrast0.81_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.20497871763803</v>
+        <v>7.759111695420591</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1652229306566156</v>
+        <v>0.600006053313167</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.064277496550707</v>
+        <v>0.4533722063746437</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_brightness10.0_sharpness0.17_contrast1.1.jpg</t>
+          <t>45_I_brightness7.8_gamma0.6_sharpness0.45.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9082120334800969</v>
+        <v>0.1231530465959033</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.634435910397628</v>
+        <v>17.39230362725537</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.8768211445747943</v>
+        <v>0.9501985080965236</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_gamma0.91_sharpness0.63_contrast0.88.jpg</t>
+          <t>46_C_sharpness0.12_brightness17.0_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.07991801716741</v>
+        <v>1.131516314543542</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6556898122975864</v>
+        <v>0.6424683698716286</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9467105126684352</v>
+        <v>5.259589299680362</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_brightness11.0_sharpness0.66_gamma0.95.jpg</t>
+          <t>47_1_contrast1.1_sharpness0.64_equalization5.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2469,30 +2469,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9801713675183474</v>
+        <v>1.117273269008413</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6266319012347206</v>
+        <v>3.444357091868402</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.3012531751273123</v>
+        <v>1.038889850000477</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_contrast0.98_gamma0.63_sharpness0.3.jpg</t>
+          <t>48_3_contrast1.1_brightness3.4_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
